--- a/Team-Data/2008-09/4-6-2008-09.xlsx
+++ b/Team-Data/2008-09/4-6-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -768,7 +835,7 @@
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -780,7 +847,7 @@
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,16 +945,16 @@
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -899,7 +966,7 @@
         <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,25 +975,25 @@
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -962,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.456</v>
@@ -1245,25 +1312,25 @@
         <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>14.8</v>
@@ -1281,25 +1348,25 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
@@ -1323,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1335,19 +1402,19 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1356,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
         <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K6" t="n">
         <v>0.467</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
         <v>10.6</v>
@@ -1445,10 +1512,10 @@
         <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1505,25 +1572,25 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>20</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
         <v>4</v>
@@ -1532,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1714,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2030,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2084,7 +2151,7 @@
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2245,13 +2312,13 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>3.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.789</v>
+        <v>0.792</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J14" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,10 +2944,10 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O14" t="n">
         <v>19.5</v>
@@ -2889,19 +2956,19 @@
         <v>25.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2913,22 +2980,22 @@
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
         <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,22 +3025,22 @@
         <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3146,10 +3213,10 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.444</v>
@@ -3423,37 +3490,37 @@
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
@@ -3462,28 +3529,28 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
         <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>22</v>
@@ -3504,10 +3571,10 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3519,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
@@ -3528,10 +3595,10 @@
         <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3543,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3689,7 +3756,7 @@
         <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3874,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4420,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4620,7 +4687,7 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4793,10 +4860,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4999,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -5034,31 +5101,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" t="n">
         <v>48</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.64</v>
+        <v>0.632</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
         <v>19</v>
@@ -5067,13 +5134,13 @@
         <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
@@ -5097,31 +5164,31 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
@@ -5136,7 +5203,7 @@
         <v>8</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
@@ -5148,10 +5215,10 @@
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5339,7 +5406,7 @@
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>22</v>
@@ -5718,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>3.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6140,7 @@
         <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-6-2008-09</t>
+          <t>2009-04-06</t>
         </is>
       </c>
     </row>
